--- a/SUPPLIER PAYMENT STATUS.xlsx
+++ b/SUPPLIER PAYMENT STATUS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>DIVISION</t>
   </si>
@@ -35,9 +35,6 @@
     <t>SUPPLIER NAME</t>
   </si>
   <si>
-    <t>PAYMENT STATUS</t>
-  </si>
-  <si>
     <t>SEPTEMBER</t>
   </si>
   <si>
@@ -101,9 +98,15 @@
     <t>ABDI JAYA</t>
   </si>
   <si>
+    <t>YET</t>
+  </si>
+  <si>
     <t>DISHY SOAP</t>
   </si>
   <si>
+    <t>POSTED</t>
+  </si>
+  <si>
     <t>ABISEKA</t>
   </si>
   <si>
@@ -176,13 +179,28 @@
     <t>VICKEL LAUNDRY</t>
   </si>
   <si>
-    <t>CLOTHES PRINTINGG</t>
+    <t>MISCELLANEOUS</t>
+  </si>
+  <si>
+    <t>CLOTHES PRINTING</t>
   </si>
   <si>
     <t>AC MAINTENANCE</t>
   </si>
   <si>
     <t>COFFEE MACHINE MAINTENANCE</t>
+  </si>
+  <si>
+    <t>TWIN PACK MINI &amp; ANT KILLER</t>
+  </si>
+  <si>
+    <t>GLASS TISSUE BOX</t>
+  </si>
+  <si>
+    <t>BLANKET, FLOOR MOP, TISSUE</t>
+  </si>
+  <si>
+    <t>PURCHASE MCB</t>
   </si>
 </sst>
 </file>
@@ -583,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -592,13 +610,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -609,7 +627,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -622,7 +640,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -632,6 +650,64 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -642,25 +718,159 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -789,7 +999,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,34 +1011,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -913,7 +1123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,31 +1142,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,22 +1211,61 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1519,582 +1804,808 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="24.7619047619048" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.5714285714286" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.2857142857143" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.2857142857143" style="4" customWidth="1"/>
-    <col min="4" max="5" width="11.2857142857143" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85714285714286" style="5" customWidth="1"/>
     <col min="6" max="7" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="11" width="14.2857142857143" style="1"/>
+    <col min="8" max="8" width="13.7142857142857" style="6" customWidth="1"/>
+    <col min="9" max="11" width="14.2857142857143" style="1"/>
     <col min="12" max="12" width="22.5904761904762" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.7142857142857" style="1"/>
     <col min="14" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="H1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="16">
+        <v>66835000</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="16">
+        <v>39738000</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="C3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16">
+        <v>45478060</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A4" s="20"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16">
+        <v>29900100</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4400000</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16">
+        <v>5560000</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A6" s="20"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5610900</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="A7" s="19"/>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="16">
+        <v>3663300</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1983600</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="16">
+        <v>8775000</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="16">
+        <v>8775000</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="A9" s="19"/>
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="A10" s="19"/>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:12">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A7" s="20"/>
-      <c r="B7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A8" s="20"/>
-      <c r="B8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A9" s="20"/>
-      <c r="B9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A10" s="20"/>
-      <c r="B10" s="15" t="s">
+      <c r="F11" s="16">
+        <v>326000</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18"/>
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="16">
+        <v>924000</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="16">
+        <v>4375000</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="A14" s="19"/>
+      <c r="B14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1525000</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="A15" s="19"/>
+      <c r="B15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A11" s="20"/>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15" spans="1:12">
-      <c r="A12" s="20"/>
-      <c r="B12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A13" s="20"/>
-      <c r="B13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A14" s="20"/>
-      <c r="B14" s="15" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A15" s="20"/>
-      <c r="B15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15" spans="1:8">
+      <c r="F15" s="16">
+        <v>210000</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:8">
       <c r="A16" s="20"/>
-      <c r="B16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="B16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="23">
+        <v>2320000</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A17" s="21"/>
-      <c r="B17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="29">
+        <v>20669000</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="16">
+        <v>3230000</v>
+      </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A19" s="22"/>
-      <c r="B19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="16">
+        <v>10775000</v>
+      </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A20" s="22"/>
-      <c r="B20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="16">
+        <v>10023000</v>
+      </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A21" s="22"/>
-      <c r="B21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A22" s="22"/>
-      <c r="B22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="16">
+        <v>3663000</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1998000</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A23" s="22"/>
-      <c r="B23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17" t="s">
-        <v>13</v>
+      <c r="A23" s="32"/>
+      <c r="B23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="16">
+        <v>2410000</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A24" s="22"/>
-      <c r="B24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="16">
+        <v>2447502</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1312502</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A25" s="22"/>
-      <c r="B25" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="A25" s="32"/>
+      <c r="B25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A26" s="22"/>
-      <c r="B26" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="16">
+        <v>4760036</v>
+      </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A27" s="22"/>
-      <c r="B27" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="16">
+        <v>5600000</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="16">
+        <v>5600000</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A28" s="22"/>
-      <c r="B28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17" t="s">
-        <v>13</v>
+      <c r="A28" s="32"/>
+      <c r="B28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1225000</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A29" s="22"/>
-      <c r="B29" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A30" s="22"/>
-      <c r="B30" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="16">
+        <v>3948000</v>
+      </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A31" s="22"/>
-      <c r="B31" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="16">
+        <v>250000</v>
+      </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A32" s="22"/>
-      <c r="B32" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:8">
+      <c r="A32" s="33"/>
+      <c r="B32" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A33" s="22"/>
-      <c r="B33" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
+      <c r="A33" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="29">
+        <v>4897000</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="29">
+        <v>8368100</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="31"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A34" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="16">
+        <v>4375000</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A35" s="22"/>
-      <c r="B35" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="17"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1007480.64</v>
+      </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A36" s="22"/>
-      <c r="B36" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:8">
+      <c r="A36" s="33"/>
+      <c r="B36" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="23">
+        <v>1168000</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="23">
+        <v>893000</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="15" spans="1:8">
-      <c r="A37" s="22"/>
-      <c r="B37" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:5">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:5">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="3" t="s">
+      <c r="A37" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="3" t="s">
+      <c r="B37" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="29">
+        <v>1020000</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="16">
+        <v>1350000</v>
+      </c>
+      <c r="G38" s="41"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" ht="15" spans="1:8">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="16">
+        <v>600000</v>
+      </c>
+      <c r="G39" s="41"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" ht="15" spans="1:8">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="16">
+        <v>318134</v>
+      </c>
+      <c r="G40" s="41"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" ht="15" spans="1:8">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="16">
+        <v>248700</v>
+      </c>
+      <c r="G41" s="41"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="16">
+        <v>1029180</v>
+      </c>
+      <c r="G42" s="41"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="43"/>
+      <c r="B43" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="23">
+        <v>270000</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/SUPPLIER PAYMENT STATUS.xlsx
+++ b/SUPPLIER PAYMENT STATUS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreal/Documents/GitHub/Purchasing-operations/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF63F89-4586-BF4C-AB85-3D0A1C993062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="800" windowWidth="17080" windowHeight="21440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19635" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="SUPPLIER PAYMENT STATUS" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>DIVISION</t>
   </si>
@@ -62,9 +56,15 @@
     <t>PAID</t>
   </si>
   <si>
+    <t>PAID 50%</t>
+  </si>
+  <si>
     <t>SEDANA JAYA</t>
   </si>
   <si>
+    <t>UNCHECKED</t>
+  </si>
+  <si>
     <t>RAFI SEAFOOD</t>
   </si>
   <si>
@@ -207,20 +207,21 @@
   </si>
   <si>
     <t>PURCHASE MCB</t>
-  </si>
-  <si>
-    <t>UNCHECKED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +234,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,23 +242,167 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +427,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -557,9 +888,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -567,7 +1140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -576,10 +1149,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,13 +1161,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -603,10 +1179,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -615,10 +1197,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -627,10 +1212,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -639,207 +1239,111 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -850,7 +1354,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -878,40 +1382,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1169,34 +1787,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.16190476190476" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="4" customWidth="1"/>
-    <col min="9" max="11" width="14.33203125"/>
-    <col min="12" max="12" width="22.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625"/>
+    <col min="1" max="1" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.3333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.5714285714286" style="3" customWidth="1"/>
+    <col min="6" max="7" width="13.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.6666666666667" style="4" customWidth="1"/>
+    <col min="9" max="11" width="14.3333333333333"/>
+    <col min="12" max="12" width="22.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="11.6666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1222,759 +1841,787 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14">
         <v>66835000</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="14">
         <v>39738000</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16"/>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14">
         <v>45478060</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="16"/>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14">
         <v>29900100</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" ht="15" spans="1:8">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="14">
         <v>4400000</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="14">
         <v>5560000</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14">
         <v>5610900</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="F6" s="14">
+        <v>3578050</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" ht="15" spans="1:8">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="14">
         <v>3663300</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14">
         <v>1983600</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" ht="15" spans="1:8">
+      <c r="A8" s="16"/>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14">
         <v>8775000</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14">
         <v>8775000</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="11" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" ht="15" spans="1:8">
+      <c r="A9" s="16"/>
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" ht="15" spans="1:8">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="C10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" ht="15" spans="1:12">
+      <c r="A11" s="16"/>
+      <c r="B11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="14">
         <v>326000</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" ht="15" spans="1:8">
+      <c r="A12" s="16"/>
+      <c r="B12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14">
         <v>924000</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" ht="15" spans="1:8">
+      <c r="A13" s="16"/>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="14">
         <v>4375000</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="15" spans="1:8">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="14">
         <v>1525000</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" ht="15" spans="1:8">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="14">
         <v>210000</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="20">
         <v>2320000</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="21">
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="25">
         <v>20669000</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="E17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="25">
+        <v>13909500</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" ht="15" spans="1:8">
+      <c r="A18" s="27"/>
+      <c r="B18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="14">
         <v>3230000</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="27"/>
+      <c r="B19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="14">
         <v>10775000</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="E19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="14">
+        <v>10000000</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="27"/>
+      <c r="B20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14">
         <v>10023000</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="E20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="14">
+        <v>6637500</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" ht="15" spans="1:8">
+      <c r="A21" s="27"/>
+      <c r="B21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" ht="15" spans="1:8">
+      <c r="A22" s="27"/>
+      <c r="B22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="14">
         <v>3663000</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="E22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="14">
         <v>1998000</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" ht="15" spans="1:8">
+      <c r="A23" s="27"/>
+      <c r="B23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="14">
         <v>2410000</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="13">
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" ht="15" spans="1:8">
+      <c r="A24" s="27"/>
+      <c r="B24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="14">
         <v>2447502</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="E24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="14">
         <v>1312502</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="39" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" ht="15" spans="1:8">
+      <c r="A25" s="27"/>
+      <c r="B25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" ht="15" spans="1:8">
+      <c r="A26" s="27"/>
+      <c r="B26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="14">
+        <v>4760036</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" ht="15" spans="1:8">
+      <c r="A27" s="27"/>
+      <c r="B27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="14">
+        <v>5600000</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="14">
+        <v>5600000</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="27"/>
+      <c r="B28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1225000</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="14">
+        <v>915750</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" ht="15" spans="1:8">
+      <c r="A29" s="27"/>
+      <c r="B29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" ht="15" spans="1:8">
+      <c r="A30" s="27"/>
+      <c r="B30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3948000</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" ht="15" spans="1:8">
+      <c r="A31" s="27"/>
+      <c r="B31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="14">
+        <v>250000</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="29"/>
+      <c r="B32" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" ht="15" spans="1:8">
+      <c r="A33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="25">
+        <v>4897000</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="25">
+        <v>8368100</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" ht="15" spans="1:8">
+      <c r="A34" s="27"/>
+      <c r="B34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="14">
+        <v>4375000</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="27"/>
+      <c r="B35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1007480.64</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="14">
+        <v>638483</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="29"/>
+      <c r="B36" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1168000</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="20">
+        <v>893000</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" ht="15" spans="1:8">
+      <c r="A37" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="25">
+        <v>1020000</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" ht="15" spans="1:8">
+      <c r="A38" s="34"/>
+      <c r="B38" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1350000</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" ht="15" spans="1:8">
+      <c r="A39" s="34"/>
+      <c r="B39" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="14">
+        <v>600000</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" ht="15" spans="1:8">
+      <c r="A40" s="34"/>
+      <c r="B40" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="14">
+        <v>318134</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" ht="15" spans="1:8">
+      <c r="A41" s="34"/>
+      <c r="B41" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="14">
+        <v>248700</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" ht="15" spans="1:8">
+      <c r="A42" s="34"/>
+      <c r="B42" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="13">
-        <v>4760036</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13">
-        <v>5600000</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="13">
-        <v>5600000</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1225000</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="13">
-        <v>3948000</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="13">
-        <v>250000</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="21">
-        <v>4897000</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="21">
-        <v>8368100</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="13">
-        <v>4375000</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1007480.64</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="17">
-        <v>1168000</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="17">
-        <v>893000</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="21">
-        <v>1020000</v>
-      </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="13">
-        <v>1350000</v>
-      </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="13">
-        <v>600000</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="13">
-        <v>318134</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="13">
-        <v>248700</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="C42" s="13"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="14">
         <v>1029180</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="38"/>
-      <c r="B43" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="17">
+      <c r="G42" s="36"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="37"/>
+      <c r="B43" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="20">
         <v>270000</v>
       </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G43" s="39"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="6:6">
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:6">
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:6">
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:6">
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:6">
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:6">
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:6">
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6">
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6">
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:6">
       <c r="F53" s="4"/>
     </row>
   </sheetData>
@@ -1985,5 +2632,6 @@
     <mergeCell ref="A37:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>